--- a/Proyecto/results/results_500_MUTAG_comparisson_stats.xlsx
+++ b/Proyecto/results/results_500_MUTAG_comparisson_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,26 @@
           <t>mapping_found_rate</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>recursive_calls_mean</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>recursive_calls_std</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recursive_calls_min</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>recursive_calls_max</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -500,34 +520,46 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0119643030166626</v>
+        <v>0.009396713256835937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007045865058898926</v>
+        <v>0.002004027366638184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05922798364108382</v>
+        <v>0.06003076199963156</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.307535886764526</v>
+        <v>1.313568592071533</v>
       </c>
       <c r="H2" t="n">
-        <v>58677.872</v>
+        <v>58895.712</v>
       </c>
       <c r="I2" t="n">
-        <v>20067.95759142913</v>
+        <v>20087.90695619674</v>
       </c>
       <c r="J2" t="n">
         <v>25456</v>
       </c>
       <c r="K2" t="n">
-        <v>146192</v>
+        <v>145984</v>
       </c>
       <c r="L2" t="n">
         <v>0.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>197.684</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1915.707218872675</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40152</v>
       </c>
     </row>
     <row r="3">
@@ -540,35 +572,39 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06099037981033325</v>
+        <v>0.0424527440071106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01016354560852051</v>
+        <v>0.009489893913269043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3814115372050819</v>
+        <v>0.2026217418302236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.345497846603394</v>
+        <v>4.319437265396118</v>
       </c>
       <c r="H3" t="n">
-        <v>56942.816</v>
+        <v>56674.352</v>
       </c>
       <c r="I3" t="n">
-        <v>13725.413451075</v>
+        <v>13683.84286065015</v>
       </c>
       <c r="J3" t="n">
         <v>28104</v>
       </c>
       <c r="K3" t="n">
-        <v>109112</v>
+        <v>108632</v>
       </c>
       <c r="L3" t="n">
         <v>0.8</v>
       </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -580,34 +616,46 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.006730016708374</v>
+        <v>0.6373499388694763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3248882293701172</v>
+        <v>0.1977722644805908</v>
       </c>
       <c r="E4" t="n">
-        <v>6.379492190955011</v>
+        <v>3.517708443420949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005217075347900391</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.0857021808624</v>
+        <v>76.57383942604065</v>
       </c>
       <c r="H4" t="n">
-        <v>44399.536</v>
+        <v>44415.664</v>
       </c>
       <c r="I4" t="n">
-        <v>8831.818470717308</v>
+        <v>8839.149121577881</v>
       </c>
       <c r="J4" t="n">
         <v>25472</v>
       </c>
       <c r="K4" t="n">
-        <v>74704</v>
+        <v>74736</v>
       </c>
       <c r="L4" t="n">
         <v>0.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1208.682</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7478.062429819942</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>165277</v>
       </c>
     </row>
   </sheetData>
